--- a/UseCaseConfigFile/TestData/OSF_Error_Scenarios.xlsx
+++ b/UseCaseConfigFile/TestData/OSF_Error_Scenarios.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E8E6F81A-759D-4EC7-863E-21F703DD46D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{63B9A4B1-EA03-4F16-8AB9-FC893826AA47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19460" windowHeight="11060" firstSheet="1" activeTab="1" xr2:uid="{65C3C85C-9B91-4CA8-BAF0-DDD3B518DE76}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19460" windowHeight="11060" firstSheet="2" activeTab="2" xr2:uid="{65C3C85C-9B91-4CA8-BAF0-DDD3B518DE76}"/>
   </bookViews>
   <sheets>
     <sheet name="Capture_response_error_data" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="GetNBA_error_data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L3"/>
+  <oleSize ref="A1:H12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FAB46E-DDA5-473D-BCAF-6AE4DA731D87}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEA644F-BA4F-486F-93E0-6357162485C2}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/UseCaseConfigFile/TestData/OSF_Error_Scenarios.xlsx
+++ b/UseCaseConfigFile/TestData/OSF_Error_Scenarios.xlsx
@@ -3,31 +3,58 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{63B9A4B1-EA03-4F16-8AB9-FC893826AA47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adey32\git\mccm_automation\UseCaseConfigFile\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C7BC1F-4B59-4DD8-B22D-2C9B2E4D3D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19460" windowHeight="11060" firstSheet="2" activeTab="2" xr2:uid="{65C3C85C-9B91-4CA8-BAF0-DDD3B518DE76}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="2" xr2:uid="{65C3C85C-9B91-4CA8-BAF0-DDD3B518DE76}"/>
   </bookViews>
   <sheets>
     <sheet name="Capture_response_error_data" sheetId="1" r:id="rId1"/>
     <sheet name="ProcessFeedback_error_data" sheetId="2" r:id="rId2"/>
     <sheet name="GetNBA_error_data" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:H12"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>{"CustomerID":"45189100","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"1130541264","SubscriptionID":"GSM1821234581","SI":"MobileSubscr123"},"Name":"SG4","Issue":"Sales","Group":"Mobile","CampaignID":"P-12345","InteractionID":"-56033434234234255","Outcome":"Accepted","FeedbackCode":"Accepted","CommissionPoints":5,"VOID":"2343","NBAOfferID":"PAPs12344777"}</t>
+  </si>
+  <si>
+    <t>{"CustomerID":"45189100","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"","SubscriptionID":"GSM1821234581","SI":"MobileSubscr"},"Name":"SG4","Issue":"Sales","Group":"Mobile","CampaignID":"P-12345","InteractionID":"-56033434234234255","Outcome":"Accepted","FeedbackCode":"Accepted","CommissionPoints":5,"VOID":"2343","NBAOfferID":"PAPs12344777"}</t>
+  </si>
+  <si>
+    <t>{"CustomerID":"45189100123","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"1130541264","SubscriptionID":"GSM1821234581","SI":"MobileSubscr"},"Name":"SG4","Issue":"Sales","Group":"Mobile","CampaignID":"P-12345","InteractionID":"-56033434234234255","Outcome":"Accepted","FeedbackCode":"Accepted","CommissionPoints":5,"VOID":"2343","NBAOfferID":"PAPs12344777"}</t>
+  </si>
   <si>
     <t>{"CustomerID":"","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"1130541264","SubscriptionID":"GSM1821234581","SI":"MobileSubscr"},"Name":"SG4","Issue":"Sales","Group":"Mobile","CampaignID":"P-12345","InteractionID":"-56033434234234255","Outcome":"Accepted","FeedbackCode":"Accepted","CommissionPoints":5,"VOID":"2343","NBAOfferID":"PAPs12344777"}</t>
   </si>
   <si>
+    <t>{"OrderID":"7473","Outcome":"SaveOffer","RankedResults":[{"CustomerID":"451891001234","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"30541230","SI":"Cable"},"Name":"SG5","Issue":"Sales","Group":"Cable","CampaignID":"P-12","InteractionID":"-56933434234234299","CommissionPoints":4,"VOID":"1000","NBAOfferID":"755"},{"CustomerID":"45189101","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"13013430","SI":"Fixnet"},"Name":"SG4","Issue":"Sales","Group":"Cable","CampaignID":"P-987","InteractionID":"-46033434234234300","CommissionPoints":1,"VOID":"2272","NBAOfferID":"876"}]}</t>
+  </si>
+  <si>
+    <t>{"OrderID":"7473","Outcome":"SaveOffer","RankedResults":[{"CustomerID":"45189100","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"30541230","SI":"Cable"},"Name":"","Issue":"Sales","Group":"Cable","CampaignID":"P-12","InteractionID":"-56933434234234299","CommissionPoints":4,"VOID":"1000","NBAOfferID":"755"},{"CustomerID":"45189101","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"13013430","SI":"Fixnet"},"Name":"SG4","Issue":"Sales","Group":"Cable","CampaignID":"P-987","InteractionID":"-46033434234234300","CommissionPoints":1,"VOID":"2272","NBAOfferID":"876"}]}</t>
+  </si>
+  <si>
     <t>TestData for error scenarios processfeedback</t>
   </si>
   <si>
@@ -43,9 +70,6 @@
     <t>{"Accounts":[{"AccountID":"","SI":"MobileBAN"}],"VOID":"12345678","SCClassification":"SCL","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound"}</t>
   </si>
   <si>
-    <t>{"Accounts":[{"AccountID":"1130541259","SI":"MobileBAN"}],"VOID":"12345678","SCClassification":"SCL1234","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound"}</t>
-  </si>
-  <si>
     <t>{"Accounts":[{"AccountID":"1130541259","SI":"MobileBAN344"}],"VOID":"12345678","SCClassification":"SCL","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound"}</t>
   </si>
   <si>
@@ -53,21 +77,6 @@
   </si>
   <si>
     <t>{"":[{"AccountID":"1130541259122","SI":"MobileBAN"}],"VOID":"12345678","SCClassification":"SCL","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound"}</t>
-  </si>
-  <si>
-    <t>{"CustomerID":"46189100","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"1130541264","SubscriptionID":"GSM1821234581","SI":"MobileSubscr123"},"Name":"SG4","Issue":"Sales","Group":"Mobile","CampaignID":"P-12345","InteractionID":"-56033434234234255","Outcome":"Accepted","FeedbackCode":"Accepted","CommissionPoints":5,"VOID":"2343","NBAOfferID":"PAPs12344777"}</t>
-  </si>
-  <si>
-    <t>{"CustomerID":"46189100","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"","SubscriptionID":"GSM1821234581","SI":"MobileSubscr"},"Name":"SG4","Issue":"Sales","Group":"Mobile","CampaignID":"P-12345","InteractionID":"-56033434234234255","Outcome":"Accepted","FeedbackCode":"Accepted","CommissionPoints":5,"VOID":"2343","NBAOfferID":"PAPs12344777"}</t>
-  </si>
-  <si>
-    <t>{"CustomerID":"46189100123","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"1130541264","SubscriptionID":"GSM1821234581","SI":"MobileSubscr"},"Name":"SG4","Issue":"Sales","Group":"Mobile","CampaignID":"P-12345","InteractionID":"-56033434234234255","Outcome":"Accepted","FeedbackCode":"Accepted","CommissionPoints":5,"VOID":"2343","NBAOfferID":"PAPs12344777"}</t>
-  </si>
-  <si>
-    <t>{"OrderID":"7473","Outcome":"SaveOffer","RankedResults":[{"CustomerID":"46189100","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"30541230","SI":"Cable"},"Name":"","Issue":"Sales","Group":"Cable","CampaignID":"P-12","InteractionID":"-56933434234234299","CommissionPoints":4,"VOID":"1000","NBAOfferID":"755"},{"CustomerID":"45189101","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"13013430","SI":"Fixnet"},"Name":"SG4","Issue":"Sales","Group":"Cable","CampaignID":"P-987","InteractionID":"-46033434234234300","CommissionPoints":1,"VOID":"2272","NBAOfferID":"876"}]}</t>
-  </si>
-  <si>
-    <t>{"OrderID":"7473","Outcome":"SaveOffer","RankedResults":[{"CustomerID":"461891001234","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"30541230","SI":"Cable"},"Name":"SG5","Issue":"Sales","Group":"Cable","CampaignID":"P-12","InteractionID":"-56933434234234299","CommissionPoints":4,"VOID":"1000","NBAOfferID":"755"},{"CustomerID":"45189101","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"13013430","SI":"Fixnet"},"Name":"SG4","Issue":"Sales","Group":"Cable","CampaignID":"P-987","InteractionID":"-46033434234234300","CommissionPoints":1,"VOID":"2272","NBAOfferID":"876"}]}</t>
   </si>
 </sst>
 </file>
@@ -432,27 +441,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -464,9 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FAB46E-DDA5-473D-BCAF-6AE4DA731D87}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -475,17 +482,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -495,10 +502,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEA644F-BA4F-486F-93E0-6357162485C2}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -508,37 +515,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/UseCaseConfigFile/TestData/OSF_Error_Scenarios.xlsx
+++ b/UseCaseConfigFile/TestData/OSF_Error_Scenarios.xlsx
@@ -3,58 +3,34 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adey32\git\mccm_automation\UseCaseConfigFile\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C7BC1F-4B59-4DD8-B22D-2C9B2E4D3D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{88827205-E67D-445A-8267-3BDD49EAF881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="2" xr2:uid="{65C3C85C-9B91-4CA8-BAF0-DDD3B518DE76}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19280" windowHeight="11060" firstSheet="3" activeTab="4" xr2:uid="{65C3C85C-9B91-4CA8-BAF0-DDD3B518DE76}"/>
   </bookViews>
   <sheets>
     <sheet name="Capture_response_error_data" sheetId="1" r:id="rId1"/>
     <sheet name="ProcessFeedback_error_data" sheetId="2" r:id="rId2"/>
     <sheet name="GetNBA_error_data" sheetId="3" r:id="rId3"/>
+    <sheet name="Data_invalid_headers" sheetId="4" r:id="rId4"/>
+    <sheet name="invalid_headers" sheetId="6" r:id="rId5"/>
+    <sheet name="Headers" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:E11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>{"CustomerID":"45189100","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"1130541264","SubscriptionID":"GSM1821234581","SI":"MobileSubscr123"},"Name":"SG4","Issue":"Sales","Group":"Mobile","CampaignID":"P-12345","InteractionID":"-56033434234234255","Outcome":"Accepted","FeedbackCode":"Accepted","CommissionPoints":5,"VOID":"2343","NBAOfferID":"PAPs12344777"}</t>
-  </si>
-  <si>
-    <t>{"CustomerID":"45189100","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"","SubscriptionID":"GSM1821234581","SI":"MobileSubscr"},"Name":"SG4","Issue":"Sales","Group":"Mobile","CampaignID":"P-12345","InteractionID":"-56033434234234255","Outcome":"Accepted","FeedbackCode":"Accepted","CommissionPoints":5,"VOID":"2343","NBAOfferID":"PAPs12344777"}</t>
-  </si>
-  <si>
-    <t>{"CustomerID":"45189100123","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"1130541264","SubscriptionID":"GSM1821234581","SI":"MobileSubscr"},"Name":"SG4","Issue":"Sales","Group":"Mobile","CampaignID":"P-12345","InteractionID":"-56033434234234255","Outcome":"Accepted","FeedbackCode":"Accepted","CommissionPoints":5,"VOID":"2343","NBAOfferID":"PAPs12344777"}</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>{"CustomerID":"","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"1130541264","SubscriptionID":"GSM1821234581","SI":"MobileSubscr"},"Name":"SG4","Issue":"Sales","Group":"Mobile","CampaignID":"P-12345","InteractionID":"-56033434234234255","Outcome":"Accepted","FeedbackCode":"Accepted","CommissionPoints":5,"VOID":"2343","NBAOfferID":"PAPs12344777"}</t>
   </si>
   <si>
-    <t>{"OrderID":"7473","Outcome":"SaveOffer","RankedResults":[{"CustomerID":"451891001234","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"30541230","SI":"Cable"},"Name":"SG5","Issue":"Sales","Group":"Cable","CampaignID":"P-12","InteractionID":"-56933434234234299","CommissionPoints":4,"VOID":"1000","NBAOfferID":"755"},{"CustomerID":"45189101","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"13013430","SI":"Fixnet"},"Name":"SG4","Issue":"Sales","Group":"Cable","CampaignID":"P-987","InteractionID":"-46033434234234300","CommissionPoints":1,"VOID":"2272","NBAOfferID":"876"}]}</t>
-  </si>
-  <si>
-    <t>{"OrderID":"7473","Outcome":"SaveOffer","RankedResults":[{"CustomerID":"45189100","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"30541230","SI":"Cable"},"Name":"","Issue":"Sales","Group":"Cable","CampaignID":"P-12","InteractionID":"-56933434234234299","CommissionPoints":4,"VOID":"1000","NBAOfferID":"755"},{"CustomerID":"45189101","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"13013430","SI":"Fixnet"},"Name":"SG4","Issue":"Sales","Group":"Cable","CampaignID":"P-987","InteractionID":"-46033434234234300","CommissionPoints":1,"VOID":"2272","NBAOfferID":"876"}]}</t>
-  </si>
-  <si>
     <t>TestData for error scenarios processfeedback</t>
   </si>
   <si>
@@ -77,16 +53,117 @@
   </si>
   <si>
     <t>{"":[{"AccountID":"1130541259122","SI":"MobileBAN"}],"VOID":"12345678","SCClassification":"SCL","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound"}</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>OSF_GetNBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ukwtsvulx386.elabs.svcs.entsvcs.net:18576/prweb/PRRestService/MCCMOSF/Services/CaptureResponse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ukwtsvulx386.elabs.svcs.entsvcs.net:18576/prweb/PRRestService/MCCMOSF/Services/ProcessFeedback </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ukwtsvulx386.elabs.svcs.entsvcs.net:18576/prweb/PRRestService/MCCMOSF/Services/GetNBA </t>
+  </si>
+  <si>
+    <t>X-MCCM-CorrelationID</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>X-Request-Id</t>
+  </si>
+  <si>
+    <t>X-MCCM-UseCase</t>
+  </si>
+  <si>
+    <t>Content-Type</t>
+  </si>
+  <si>
+    <t>application/json; charset=utf-8</t>
+  </si>
+  <si>
+    <t>{"CustomerID":"46189100","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"1130541264","SubscriptionID":"GSM1821234581","SI":"MobileSubscr123"},"Name":"SG4","Issue":"Sales","Group":"Mobile","CampaignID":"P-12345","InteractionID":"-56033434234234255","Outcome":"Accepted","FeedbackCode":"Accepted","CommissionPoints":5,"VOID":"2343","NBAOfferID":"PAPs12344777"}</t>
+  </si>
+  <si>
+    <t>{"CustomerID":"46189100","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"","SubscriptionID":"GSM1821234581","SI":"MobileSubscr"},"Name":"SG4","Issue":"Sales","Group":"Mobile","CampaignID":"P-12345","InteractionID":"-56033434234234255","Outcome":"Accepted","FeedbackCode":"Accepted","CommissionPoints":5,"VOID":"2343","NBAOfferID":"PAPs12344777"}</t>
+  </si>
+  <si>
+    <t>{"CustomerID":"46189100123","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"1130541264","SubscriptionID":"GSM1821234581","SI":"MobileSubscr"},"Name":"SG4","Issue":"Sales","Group":"Mobile","CampaignID":"P-12345","InteractionID":"-56033434234234255","Outcome":"Accepted","FeedbackCode":"Accepted","CommissionPoints":5,"VOID":"2343","NBAOfferID":"PAPs12344777"}</t>
+  </si>
+  <si>
+    <t>GUID like a45ed-eded</t>
+  </si>
+  <si>
+    <t>GUID like 45656-eade</t>
+  </si>
+  <si>
+    <t>OSF_ProcessFeedback</t>
+  </si>
+  <si>
+    <t>{"OrderID":"7473","Outcome":"SaveOffer","RankedResults":[{"CustomerID":"46189100","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"30541230","SI":"Cable"},"Name":"","Issue":"Sales","Group":"Cable","CampaignID":"P-12","InteractionID":"-56933434234234299","CommissionPoints":4,"VOID":"1000","NBAOfferID":"755"},{"CustomerID":"45189101","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"13013430","SI":"Fixnet"},"Name":"SG4","Issue":"Sales","Group":"Cable","CampaignID":"P-987","InteractionID":"-46033434234234300","CommissionPoints":1,"VOID":"2272","NBAOfferID":"876"}]}</t>
+  </si>
+  <si>
+    <t>{"OrderID":"7473","Outcome":"SaveOffer","RankedResults":[{"CustomerID":"461891001234","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"30541230","SI":"Cable"},"Name":"SG5","Issue":"Sales","Group":"Cable","CampaignID":"P-12","InteractionID":"-56933434234234299","CommissionPoints":4,"VOID":"1000","NBAOfferID":"755"},{"CustomerID":"45189101","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"13013430","SI":"Fixnet"},"Name":"SG4","Issue":"Sales","Group":"Cable","CampaignID":"P-987","InteractionID":"-46033434234234300","CommissionPoints":1,"VOID":"2272","NBAOfferID":"876"}]}</t>
+  </si>
+  <si>
+    <t>Value- capture response</t>
+  </si>
+  <si>
+    <t>Value- process feedback</t>
+  </si>
+  <si>
+    <t>Value- GETNBA</t>
+  </si>
+  <si>
+    <t>GUID likead64557</t>
+  </si>
+  <si>
+    <t>GUID likead785657</t>
+  </si>
+  <si>
+    <t>OSF_CaptureResponse</t>
+  </si>
+  <si>
+    <t>OSF_CaptureRespon</t>
+  </si>
+  <si>
+    <t>OSF_ProcessFeedbac</t>
+  </si>
+  <si>
+    <t>OSF_GetN</t>
+  </si>
+  <si>
+    <t>input file</t>
+  </si>
+  <si>
+    <t>{"OrderID":"7473","Outcome":"SaveOffer","RankedResults":[{"CustomerID":"46189100","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"30541230","SI":"Cable"},"Name":"","Issue":"Sales","Group":"Cable","CampaignID":"P-12","InteractionID":"-56933434234234299","CommissionPoints":4,"VOID":"1000","NBAOfferID":"755"},{"CustomerID":"46189101","ContainerName":"OSF","Channel":"OSF","Direction":"Inbound","OriginAccount":{"AccountID":"13013430","SI":"Fixnet"},"Name":"SG4","Issue":"Sales","Group":"Cable","CampaignID":"P-987","InteractionID":"-46033434234234300","CommissionPoints":1,"VOID":"2272","NBAOfferID":"876"}]}</t>
+  </si>
+  <si>
+    <t>application/json; charse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,13 +186,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -428,119 +508,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E90C202-2F2A-4589-88F7-E8E01CE47D7D}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.90625" customWidth="1"/>
+    <col min="2" max="2" width="48.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{495F2D58-C096-4A54-B48D-51AD664867B5}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{979C4F2C-F350-46FF-863B-926B9A870259}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{DFC7FCC1-FEED-4444-AC74-6A0566282002}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{75BF4BD0-1C4D-4FEE-B155-7AB02EDB5C3E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FAB46E-DDA5-473D-BCAF-6AE4DA731D87}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{FC0285DA-B787-4903-85CA-77536CE45CBA}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{97528DE8-8E6B-4E60-8AC8-4A9C16281B71}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEA644F-BA4F-486F-93E0-6357162485C2}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{26368750-8DB3-4916-83A4-8FECCE341E5C}"/>
+    <hyperlink ref="A3:A6" r:id="rId2" display="https://ukwtsvulx386.elabs.svcs.entsvcs.net:18576/prweb/PRRestService/MCCMOSF/Services/GetNBA " xr:uid="{5DF6C2F8-BFB7-4609-A2F5-6F062DB1593F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE976D19-B168-49A6-A29C-AC807438D3BE}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="95.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{9774014C-D2B9-4F29-9785-B585838F7387}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{32F30C76-4E5B-4F00-B709-BA4AD4B1DB7B}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{91D0896B-7382-4143-ADBA-F183388854A8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB7524-41DD-467C-B2C6-5E4CB2472624}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="26.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC749F5-89FB-488F-A883-8E8FB5EE2BEB}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="26.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
